--- a/tests/DesignPresidents.xlsx
+++ b/tests/DesignPresidents.xlsx
@@ -520,10 +520,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>#1415</v>
+        <v>#1429</v>
       </c>
       <c r="B2" t="str">
-        <v>A Product Support Excel T-shirt 2D lần 3 0310 - Black</v>
+        <v>A Product Support Excel T-shirt 2D lần 15 0310 - Black</v>
       </c>
       <c r="C2" t="str">
         <v>3</v>
@@ -532,7 +532,7 @@
         <v>225</v>
       </c>
       <c r="E2" t="str">
-        <v>03:35 03/10/2024</v>
+        <v>05:21 03/10/2024</v>
       </c>
       <c r="F2" t="str">
         <v>THF-S25</v>
@@ -541,10 +541,10 @@
         <v>sale_UyenThu</v>
       </c>
       <c r="H2" t="str">
-        <v>luyenstore_6450889326664</v>
+        <v>luyenstore_6450966757448</v>
       </c>
       <c r="I2" t="str">
-        <v>40416853950536</v>
+        <v>40416861683784</v>
       </c>
       <c r="J2" t="str">
         <v>10</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="str">
-        <v>https://cdn.shopify.com/s/files/1/0013/7602/6696/files/c9d00636ce2b818b96e07fa5087aa300_69311d4b-eddd-4ae6-8246-b91bddedf2be.jpg?v=1727944470</v>
+        <v>https://cdn.shopify.com/s/files/1/0013/7602/6696/files/c9d00636ce2b818b96e07fa5087aa300_3f44b37b-66a1-4375-94c8-21357320a95e.jpg?v=1727950833</v>
       </c>
       <c r="Q2" t="str">
         <v>Black</v>

--- a/tests/DesignPresidents.xlsx
+++ b/tests/DesignPresidents.xlsx
@@ -520,10 +520,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>#1429</v>
+        <v>#1477</v>
       </c>
       <c r="B2" t="str">
-        <v>A Product Support Excel T-shirt 2D lần 15 0310 - Black</v>
+        <v>A Product Support Excel T-shirt 2D lần 22 0410 - Black</v>
       </c>
       <c r="C2" t="str">
         <v>3</v>
@@ -532,7 +532,7 @@
         <v>225</v>
       </c>
       <c r="E2" t="str">
-        <v>05:21 03/10/2024</v>
+        <v>04:43 04/10/2024</v>
       </c>
       <c r="F2" t="str">
         <v>THF-S25</v>
@@ -541,10 +541,10 @@
         <v>sale_UyenThu</v>
       </c>
       <c r="H2" t="str">
-        <v>luyenstore_6450966757448</v>
+        <v>luyenstore_6452312506440</v>
       </c>
       <c r="I2" t="str">
-        <v>40416861683784</v>
+        <v>40417732427848</v>
       </c>
       <c r="J2" t="str">
         <v>10</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="str">
-        <v>https://cdn.shopify.com/s/files/1/0013/7602/6696/files/c9d00636ce2b818b96e07fa5087aa300_3f44b37b-66a1-4375-94c8-21357320a95e.jpg?v=1727950833</v>
+        <v>https://cdn.shopify.com/s/files/1/0013/7602/6696/files/c9d00636ce2b818b96e07fa5087aa300_5e17eff7-9330-40bf-8c05-30e768fef2ac.jpg?v=1728034999</v>
       </c>
       <c r="Q2" t="str">
         <v>Black</v>
@@ -631,7 +631,7 @@
         <v/>
       </c>
       <c r="AL2" t="str">
-        <v>https://nvcdn.shopasic.com/crm/1af16a34-ceff-48e7-86f2-78bad95d30b0/images/202410/4aafbd8f-7fae-11ef-88f6-0242c0a8f003.jpg</v>
+        <v>https://nvcdn.shopasic.com/crm/1af16a34-ceff-48e7-86f2-78bad95d30b0/images/202409/af4dcc68-73fd-11ef-87d6-0242ac1b0012.jpg</v>
       </c>
     </row>
   </sheetData>
